--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1896607.244164848</v>
+        <v>1894719.662648446</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>314.6536463267108</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -786,7 +786,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>102.5756487563989</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>7.948401543480728</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>34.34150943501817</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>14.33571678054073</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>135.1157241044941</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>284.5615160058696</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>201.5990670335027</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.83808333974872</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>128.7835007017904</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>118.8209292153267</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.057369098302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>109.0847947020402</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>113.1076757414636</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>47.17200521367685</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.0950480193521</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>271.4435949224595</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>192.6059209715411</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>250.0324175065486</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>127.9288390426638</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>203.8435192151921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>22.15389418979605</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965531</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571493</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523573</v>
+        <v>54.76109577523578</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0.8328922122438257</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
@@ -3013,7 +3013,7 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235378</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3673,7 +3673,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789547</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>525.2409238118514</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005474</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="C4" t="n">
-        <v>473.4444960005474</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="D4" t="n">
-        <v>473.4444960005474</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="E4" t="n">
-        <v>473.4444960005474</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="F4" t="n">
-        <v>326.554548502637</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>157.5547482409694</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005474</v>
+        <v>690.6833766322978</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1022.045772923999</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C5" t="n">
-        <v>653.0832559835876</v>
+        <v>1564.581483840919</v>
       </c>
       <c r="D5" t="n">
-        <v>653.0832559835876</v>
+        <v>1206.315785234169</v>
       </c>
       <c r="E5" t="n">
-        <v>653.0832559835876</v>
+        <v>820.5275326359244</v>
       </c>
       <c r="F5" t="n">
-        <v>242.09735119398</v>
+        <v>409.5416278463169</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>395.6182237849078</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>68.42350382091064</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.645612988121</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8558756644252</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>591.6484548079553</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>591.6484548079553</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>591.6484548079553</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>591.6484548079553</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>591.6484548079553</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.8558756644252</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9086980046678</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5024,7 +5024,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5036,34 +5036,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,19 +5115,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>524.5778132641557</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C13" t="n">
-        <v>355.6416303362487</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>786.0822064765186</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>786.0822064765186</v>
+        <v>665.6859735286135</v>
       </c>
       <c r="X13" t="n">
-        <v>786.0822064765186</v>
+        <v>665.6859735286135</v>
       </c>
       <c r="Y13" t="n">
-        <v>706.2262780943954</v>
+        <v>665.6859735286135</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,40 +5288,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5361,13 +5361,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>357.5203921878137</v>
+        <v>677.7114078547897</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>508.7752249268829</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>508.7752249268829</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>508.7752249268829</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>361.8852774289725</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>874.9271131227918</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W16" t="n">
-        <v>585.5099430858311</v>
+        <v>898.5039869983199</v>
       </c>
       <c r="X16" t="n">
-        <v>357.5203921878137</v>
+        <v>898.5039869983199</v>
       </c>
       <c r="Y16" t="n">
-        <v>357.5203921878137</v>
+        <v>677.7114078547897</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,40 +5525,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.159861298439</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C19" t="n">
-        <v>394.2236783705321</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581963</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W19" t="n">
-        <v>972.797877026696</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="X19" t="n">
-        <v>744.8083261286787</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.8083261286787</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,28 +5768,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.4612303381596</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C22" t="n">
-        <v>394.5250474102527</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>394.5250474102527</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102527</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123423</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123423</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>986.002216560966</v>
+        <v>1024.810811056829</v>
       </c>
       <c r="V22" t="n">
-        <v>986.002216560966</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="W22" t="n">
-        <v>791.4507812361769</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="X22" t="n">
-        <v>563.4612303381596</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.4612303381596</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,10 +5999,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.9038434870661</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="C25" t="n">
-        <v>216.9038434870661</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D25" t="n">
-        <v>216.9038434870661</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E25" t="n">
-        <v>216.9038434870661</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F25" t="n">
-        <v>216.9038434870661</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655741</v>
+        <v>533.5242089951569</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286135</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305962</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.9038434870661</v>
+        <v>244.1070389581963</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,16 +6215,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514085</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>692.3809108364831</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>523.4447279085762</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>373.3280884962404</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>373.3280884962404</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>226.4381409983301</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570739</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>531.1091870201134</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X28" t="n">
-        <v>303.1196361220961</v>
+        <v>692.3809108364831</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>692.3809108364831</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030872</v>
+        <v>750.8748194215258</v>
       </c>
       <c r="C31" t="n">
-        <v>543.0423586043032</v>
+        <v>637.6995017749895</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733382</v>
+        <v>543.3437276440244</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723158</v>
+        <v>451.1914993430021</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557762</v>
+        <v>360.0624171264623</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6646,25 +6646,25 @@
         <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1879.970519634378</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1879.970519634378</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1646.602746129307</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1447.679123204791</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>1214.022818449201</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652466</v>
+        <v>1041.794132832554</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030872</v>
+        <v>876.7624189703947</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,13 +6920,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,7 +6935,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6962,7 +6962,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,61 +7163,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7430,7 +7430,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504513</v>
@@ -7564,7 +7564,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172073</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3400780863226</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978197</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978197</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445216</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599039</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711639</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>61.0110509666106</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.5272842537928</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>58.16202639658759</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>53.38589272191395</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>239.3509931229141</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>11.48960533274268</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,19 +24175,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>14.79375747611789</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>93.91707736504986</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>48.00368395686529</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>2.105225817279404</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24601,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>38.56472942071382</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.74113413690267</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>89.88967028027474</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>141.8846611428023</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.324672136</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721358</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
         <v>508527.6716815879</v>
       </c>
       <c r="L2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.1061651763</v>
       </c>
       <c r="M2" t="n">
         <v>513151.1061651765</v>
       </c>
       <c r="N2" t="n">
+        <v>513151.1061651764</v>
+      </c>
+      <c r="O2" t="n">
         <v>513151.1061651765</v>
-      </c>
-      <c r="O2" t="n">
-        <v>513151.1061651764</v>
       </c>
       <c r="P2" t="n">
         <v>513151.1061651764</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007465</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007478</v>
+        <v>7916.731656007454</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007463</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020397</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.8998286982</v>
+        <v>-307592.899828698</v>
       </c>
       <c r="C6" t="n">
         <v>282374.9793858465</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.979385847</v>
+        <v>282374.9793858469</v>
       </c>
       <c r="E6" t="n">
-        <v>-136277.7694094845</v>
+        <v>-136375.2285354567</v>
       </c>
       <c r="F6" t="n">
-        <v>388882.2670674118</v>
+        <v>388784.8079414397</v>
       </c>
       <c r="G6" t="n">
-        <v>388882.2670674117</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="H6" t="n">
-        <v>388882.267067412</v>
+        <v>388784.8079414395</v>
       </c>
       <c r="I6" t="n">
-        <v>388882.2670674116</v>
+        <v>388784.8079414395</v>
       </c>
       <c r="J6" t="n">
-        <v>212459.0478748188</v>
+        <v>212361.5887488466</v>
       </c>
       <c r="K6" t="n">
-        <v>341655.5036783154</v>
+        <v>341637.0099403812</v>
       </c>
       <c r="L6" t="n">
-        <v>374757.5746469563</v>
+        <v>374757.5746469561</v>
       </c>
       <c r="M6" t="n">
         <v>250299.466213986</v>
       </c>
       <c r="N6" t="n">
+        <v>385100.4814478231</v>
+      </c>
+      <c r="O6" t="n">
         <v>385100.4814478232</v>
       </c>
-      <c r="O6" t="n">
-        <v>385100.4814478231</v>
-      </c>
       <c r="P6" t="n">
-        <v>340937.8761449774</v>
+        <v>340937.8761449775</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.269126437646321</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>73.79021906417989</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>53.59524008539627</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>210.6362518086141</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>379.4426605857768</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>137.5955994643205</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>89.91938135359018</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>129.2226540149254</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>14.84925332415509</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.9938968421886</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724676</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31519,22 +31519,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119866</v>
@@ -31543,19 +31543,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31713,7 +31713,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
@@ -35738,7 +35738,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36449,13 +36449,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>331.4334930178474</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504664</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412259</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043182</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37324,7 +37324,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349813</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303323</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109073</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
